--- a/live_war_auto_update.xlsx
+++ b/live_war_auto_update.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="War Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Our Clan War Report" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Opponent Clan War Report" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -440,7 +441,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-05-25 02:12:38</t>
+          <t>2025-05-27 02:01:28</t>
         </is>
       </c>
     </row>
@@ -452,7 +453,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-05-26 01:12:38</t>
+          <t>2025-05-28 01:01:28</t>
         </is>
       </c>
     </row>
@@ -464,7 +465,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-05-27 01:12:38</t>
+          <t>2025-05-29 01:01:28</t>
         </is>
       </c>
     </row>
@@ -488,34 +489,34 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>7:05:43</t>
+          <t>3:17:22</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>no</t>
+          <t>No</t>
         </is>
       </c>
       <c r="B8" s="1" t="inlineStr">
         <is>
-          <t>tag</t>
+          <t>Tag</t>
         </is>
       </c>
       <c r="C8" s="1" t="inlineStr">
         <is>
-          <t>name</t>
+          <t>Name</t>
         </is>
       </c>
       <c r="D8" s="1" t="inlineStr">
         <is>
-          <t>townhall</t>
+          <t>Townhall</t>
         </is>
       </c>
       <c r="E8" s="1" t="inlineStr">
         <is>
-          <t>Map position</t>
+          <t>Map Position</t>
         </is>
       </c>
       <c r="F8" s="1" t="inlineStr">
@@ -525,42 +526,42 @@
       </c>
       <c r="G8" s="1" t="inlineStr">
         <is>
-          <t>Total destruction</t>
+          <t>Total Destruction</t>
         </is>
       </c>
       <c r="H8" s="1" t="inlineStr">
         <is>
-          <t>1st attack target position</t>
+          <t>1st Attack Target</t>
         </is>
       </c>
       <c r="I8" s="1" t="inlineStr">
         <is>
-          <t>1st attack stars</t>
+          <t>1st Attack Stars</t>
         </is>
       </c>
       <c r="J8" s="1" t="inlineStr">
         <is>
-          <t>1st attack destruction</t>
+          <t>1st Attack Destruction</t>
         </is>
       </c>
       <c r="K8" s="1" t="inlineStr">
         <is>
-          <t>2nd attack target position</t>
+          <t>2nd Attack Target</t>
         </is>
       </c>
       <c r="L8" s="1" t="inlineStr">
         <is>
-          <t>2nd attack star</t>
+          <t>2nd Attack Stars</t>
         </is>
       </c>
       <c r="M8" s="1" t="inlineStr">
         <is>
-          <t>2nd attack destruction</t>
+          <t>2nd Attack Destruction</t>
         </is>
       </c>
       <c r="N8" s="1" t="inlineStr">
         <is>
-          <t>attacker points</t>
+          <t>Attacker Points</t>
         </is>
       </c>
     </row>
@@ -585,27 +586,35 @@
         <v>16</v>
       </c>
       <c r="F9" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G9" t="n">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>#CG0CQ9UL</t>
+          <t>#8JJUJLYGL</t>
         </is>
       </c>
       <c r="I9" t="n">
         <v>2</v>
       </c>
       <c r="J9" t="n">
-        <v>85</v>
-      </c>
-      <c r="K9" t="inlineStr"/>
-      <c r="L9" t="inlineStr"/>
-      <c r="M9" t="inlineStr"/>
+        <v>59</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>#82C9RGLQ</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>59</v>
+      </c>
       <c r="N9" t="n">
-        <v>28.5</v>
+        <v>51.8</v>
       </c>
     </row>
     <row r="10">
@@ -626,38 +635,38 @@
         <v>17</v>
       </c>
       <c r="E10" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>4</v>
       </c>
       <c r="G10" t="n">
-        <v>149</v>
+        <v>166</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>#LJ2GGG9LY</t>
+          <t>#L2CCP298G</t>
         </is>
       </c>
       <c r="I10" t="n">
         <v>2</v>
       </c>
       <c r="J10" t="n">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>#899V0290</t>
+          <t>#Q9RP228VC</t>
         </is>
       </c>
       <c r="L10" t="n">
         <v>2</v>
       </c>
       <c r="M10" t="n">
-        <v>74</v>
+        <v>84</v>
       </c>
       <c r="N10" t="n">
-        <v>54.9</v>
+        <v>56.6</v>
       </c>
     </row>
     <row r="11">
@@ -678,38 +687,38 @@
         <v>17</v>
       </c>
       <c r="E11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G11" t="n">
-        <v>122</v>
+        <v>184</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>#8P8VGJQLV</t>
+          <t>#YGYG22G0J</t>
         </is>
       </c>
       <c r="I11" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J11" t="n">
-        <v>53</v>
+        <v>90</v>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>#202L2L2RV</t>
+          <t>#QYP9R8JLQ</t>
         </is>
       </c>
       <c r="L11" t="n">
         <v>2</v>
       </c>
       <c r="M11" t="n">
-        <v>69</v>
+        <v>94</v>
       </c>
       <c r="N11" t="n">
-        <v>42.2</v>
+        <v>58.4</v>
       </c>
     </row>
     <row r="12">
@@ -730,17 +739,17 @@
         <v>15</v>
       </c>
       <c r="E12" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G12" t="n">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>#L92G2LJR</t>
+          <t>#8U80R0R8P</t>
         </is>
       </c>
       <c r="I12" t="n">
@@ -751,17 +760,17 @@
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>#QUV9L882C</t>
+          <t>#YLL0YU8U</t>
         </is>
       </c>
       <c r="L12" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M12" t="n">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="N12" t="n">
-        <v>80</v>
+        <v>59.4</v>
       </c>
     </row>
     <row r="13">
@@ -770,840 +779,1884 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
+          <t>#L2YUUQVG</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>grk</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>8</v>
+      </c>
+      <c r="F13" t="n">
+        <v>4</v>
+      </c>
+      <c r="G13" t="n">
+        <v>156</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>#YP9QVLRG</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>92</v>
+      </c>
+      <c r="K13" t="inlineStr">
+        <is>
+          <t>#QGGCRQ2P</t>
+        </is>
+      </c>
+      <c r="L13" t="n">
+        <v>2</v>
+      </c>
+      <c r="M13" t="n">
+        <v>64</v>
+      </c>
+      <c r="N13" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>6</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>#LVUVLJVVJ</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>bala</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>16</v>
+      </c>
+      <c r="E14" t="n">
+        <v>17</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="inlineStr"/>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>7</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
           <t>#2YRR0CL0G</t>
         </is>
       </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>machinist</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>17</v>
+      </c>
+      <c r="E15" t="n">
+        <v>5</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="n">
+        <v>185</v>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>#9Y8UYJJJY</t>
+        </is>
+      </c>
+      <c r="I15" t="n">
+        <v>2</v>
+      </c>
+      <c r="J15" t="n">
+        <v>97</v>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
+          <t>#82C9RGLQ</t>
+        </is>
+      </c>
+      <c r="L15" t="n">
+        <v>1</v>
+      </c>
+      <c r="M15" t="n">
+        <v>88</v>
+      </c>
+      <c r="N15" t="n">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>8</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>#PC9Y8JRLU</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>linkesh</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>17</v>
+      </c>
+      <c r="E16" t="n">
+        <v>12</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="inlineStr"/>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
+      <c r="M16" t="inlineStr"/>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>9</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>#9Q2QGP8QU</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ADENGAPPA゛RAM</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>17</v>
+      </c>
+      <c r="E17" t="n">
+        <v>7</v>
+      </c>
+      <c r="F17" t="n">
+        <v>4</v>
+      </c>
+      <c r="G17" t="n">
+        <v>147</v>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>#22L9P9JLC</t>
+        </is>
+      </c>
+      <c r="I17" t="n">
+        <v>2</v>
+      </c>
+      <c r="J17" t="n">
+        <v>71</v>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>#L2CCP298G</t>
+        </is>
+      </c>
+      <c r="L17" t="n">
+        <v>2</v>
+      </c>
+      <c r="M17" t="n">
+        <v>76</v>
+      </c>
+      <c r="N17" t="n">
+        <v>54.7</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>10</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>#GPGU82LY2</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Naruto</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>15</v>
+      </c>
+      <c r="E18" t="n">
+        <v>20</v>
+      </c>
+      <c r="F18" t="n">
+        <v>6</v>
+      </c>
+      <c r="G18" t="n">
+        <v>200</v>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>#GPC8UL0RV</t>
+        </is>
+      </c>
+      <c r="I18" t="n">
+        <v>3</v>
+      </c>
+      <c r="J18" t="n">
+        <v>100</v>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>#YQC0VQ9U2</t>
+        </is>
+      </c>
+      <c r="L18" t="n">
+        <v>3</v>
+      </c>
+      <c r="M18" t="n">
+        <v>100</v>
+      </c>
+      <c r="N18" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>11</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>#PPYY8GQLG</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Abick sharon</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>17</v>
+      </c>
+      <c r="E19" t="n">
+        <v>6</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr"/>
+      <c r="N19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>12</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>#2PP9ULC88</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>hemu</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>17</v>
+      </c>
+      <c r="E20" t="n">
+        <v>3</v>
+      </c>
+      <c r="F20" t="n">
+        <v>4</v>
+      </c>
+      <c r="G20" t="n">
+        <v>156</v>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>#CJP8CJ09</t>
+        </is>
+      </c>
+      <c r="I20" t="n">
+        <v>2</v>
+      </c>
+      <c r="J20" t="n">
+        <v>77</v>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>#RYQC2PVQ</t>
+        </is>
+      </c>
+      <c r="L20" t="n">
+        <v>2</v>
+      </c>
+      <c r="M20" t="n">
+        <v>79</v>
+      </c>
+      <c r="N20" t="n">
+        <v>55.6</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>13</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>#9YQLY2GJL</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Purushoth</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>16</v>
+      </c>
+      <c r="E21" t="n">
+        <v>14</v>
+      </c>
+      <c r="F21" t="n">
+        <v>4</v>
+      </c>
+      <c r="G21" t="n">
+        <v>188</v>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>#82C9RGLQ</t>
+        </is>
+      </c>
+      <c r="I21" t="n">
+        <v>1</v>
+      </c>
+      <c r="J21" t="n">
+        <v>88</v>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>#LQCU99G0</t>
+        </is>
+      </c>
+      <c r="L21" t="n">
+        <v>3</v>
+      </c>
+      <c r="M21" t="n">
+        <v>100</v>
+      </c>
+      <c r="N21" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>14</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>#80QV2GRQQ</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Raj</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>17</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>4</v>
+      </c>
+      <c r="G22" t="n">
+        <v>151</v>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>#8JJUJLYGL</t>
+        </is>
+      </c>
+      <c r="I22" t="n">
+        <v>2</v>
+      </c>
+      <c r="J22" t="n">
+        <v>77</v>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>#L2CCP298G</t>
+        </is>
+      </c>
+      <c r="L22" t="n">
+        <v>2</v>
+      </c>
+      <c r="M22" t="n">
+        <v>74</v>
+      </c>
+      <c r="N22" t="n">
+        <v>55.1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>#PY9QPG8L8</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Jack Sparrow</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>17</v>
+      </c>
+      <c r="E23" t="n">
+        <v>1</v>
+      </c>
+      <c r="F23" t="n">
+        <v>5</v>
+      </c>
+      <c r="G23" t="n">
+        <v>171</v>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>#8R0QQVL99</t>
+        </is>
+      </c>
+      <c r="I23" t="n">
+        <v>3</v>
+      </c>
+      <c r="J23" t="n">
+        <v>100</v>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>#RV0J2JYR</t>
+        </is>
+      </c>
+      <c r="L23" t="n">
+        <v>2</v>
+      </c>
+      <c r="M23" t="n">
+        <v>71</v>
+      </c>
+      <c r="N23" t="n">
+        <v>67.09999999999999</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>16</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>#QVQ89QV2G</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Vasanth</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>15</v>
+      </c>
+      <c r="E24" t="n">
+        <v>19</v>
+      </c>
+      <c r="F24" t="n">
+        <v>4</v>
+      </c>
+      <c r="G24" t="n">
+        <v>173</v>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>#YLL0YU8U</t>
+        </is>
+      </c>
+      <c r="I24" t="n">
+        <v>3</v>
+      </c>
+      <c r="J24" t="n">
+        <v>100</v>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>#82C9RGLQ</t>
+        </is>
+      </c>
+      <c r="L24" t="n">
+        <v>1</v>
+      </c>
+      <c r="M24" t="n">
+        <v>73</v>
+      </c>
+      <c r="N24" t="n">
+        <v>57.3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>17</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>#8YVJ88P9Y</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Nagarjun</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>16</v>
+      </c>
+      <c r="E25" t="n">
+        <v>13</v>
+      </c>
+      <c r="F25" t="n">
+        <v>2</v>
+      </c>
+      <c r="G25" t="n">
+        <v>64</v>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>#8JJUJLYGL</t>
+        </is>
+      </c>
+      <c r="I25" t="n">
+        <v>2</v>
+      </c>
+      <c r="J25" t="n">
+        <v>64</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
+      <c r="M25" t="inlineStr"/>
+      <c r="N25" t="n">
+        <v>26.4</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>18</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>#9UL9Q0L8U</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>b aol</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>16</v>
+      </c>
+      <c r="E26" t="n">
+        <v>15</v>
+      </c>
+      <c r="F26" t="n">
+        <v>6</v>
+      </c>
+      <c r="G26" t="n">
+        <v>200</v>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>#G88U08GR</t>
+        </is>
+      </c>
+      <c r="I26" t="n">
+        <v>3</v>
+      </c>
+      <c r="J26" t="n">
+        <v>100</v>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>#22L9P9JLC</t>
+        </is>
+      </c>
+      <c r="L26" t="n">
+        <v>3</v>
+      </c>
+      <c r="M26" t="n">
+        <v>100</v>
+      </c>
+      <c r="N26" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>19</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>#QQ2LGLGV</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>ezhilraju king</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>17</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
+        <v>0</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
+      <c r="H27" t="inlineStr"/>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr"/>
+      <c r="N27" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>20</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>#YVV2GUP8</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>selva</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>17</v>
+      </c>
+      <c r="E28" t="n">
+        <v>4</v>
+      </c>
+      <c r="F28" t="n">
+        <v>4</v>
+      </c>
+      <c r="G28" t="n">
+        <v>188</v>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>#82C9RGLQ</t>
+        </is>
+      </c>
+      <c r="I28" t="n">
+        <v>2</v>
+      </c>
+      <c r="J28" t="n">
+        <v>89</v>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>#8JJUJLYGL</t>
+        </is>
+      </c>
+      <c r="L28" t="n">
+        <v>2</v>
+      </c>
+      <c r="M28" t="n">
+        <v>99</v>
+      </c>
+      <c r="N28" t="n">
+        <v>58.8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Number of players</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Clan tag</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Clan name</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Average Townhall</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Strategy Tips</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Clan Stars</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Average Destruction</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>20</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>#2LG2J9VR9</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>TAMIL</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>16.4</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Target low bases with 2nd attackers. Aim 2⭐+ high %.</t>
+        </is>
+      </c>
+      <c r="F31" t="n">
+        <v>66</v>
+      </c>
+      <c r="G31" t="n">
+        <v>132.1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Opponent Clan War Report</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="inlineStr">
+        <is>
+          <t>Tag</t>
+        </is>
+      </c>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Name</t>
+        </is>
+      </c>
+      <c r="D3" s="1" t="inlineStr">
+        <is>
+          <t>Townhall</t>
+        </is>
+      </c>
+      <c r="E3" s="1" t="inlineStr">
+        <is>
+          <t>Map Position</t>
+        </is>
+      </c>
+      <c r="F3" s="1" t="inlineStr">
+        <is>
+          <t>Total Stars</t>
+        </is>
+      </c>
+      <c r="G3" s="1" t="inlineStr">
+        <is>
+          <t>Total Destruction</t>
+        </is>
+      </c>
+      <c r="H3" s="1" t="inlineStr">
+        <is>
+          <t>1st Attack Target</t>
+        </is>
+      </c>
+      <c r="I3" s="1" t="inlineStr">
+        <is>
+          <t>1st Attack Stars</t>
+        </is>
+      </c>
+      <c r="J3" s="1" t="inlineStr">
+        <is>
+          <t>1st Attack Destruction</t>
+        </is>
+      </c>
+      <c r="K3" s="1" t="inlineStr">
+        <is>
+          <t>2nd Attack Target</t>
+        </is>
+      </c>
+      <c r="L3" s="1" t="inlineStr">
+        <is>
+          <t>2nd Attack Stars</t>
+        </is>
+      </c>
+      <c r="M3" s="1" t="inlineStr">
+        <is>
+          <t>2nd Attack Destruction</t>
+        </is>
+      </c>
+      <c r="N3" s="1" t="inlineStr">
+        <is>
+          <t>Attacker Points</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>1</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>#G88U08GR</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Noteworth</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" t="n">
+        <v>13</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5</v>
+      </c>
+      <c r="G4" t="n">
+        <v>162</v>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>#8YVJ88P9Y</t>
+        </is>
+      </c>
+      <c r="I4" t="n">
+        <v>2</v>
+      </c>
+      <c r="J4" t="n">
+        <v>62</v>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>#P82JRC0CQ</t>
+        </is>
+      </c>
+      <c r="L4" t="n">
+        <v>3</v>
+      </c>
+      <c r="M4" t="n">
+        <v>100</v>
+      </c>
+      <c r="N4" t="n">
+        <v>66.2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>2</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>#82C9RGLQ</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Sir Heimer</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>16</v>
+      </c>
+      <c r="E5" t="n">
+        <v>14</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr"/>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
+      <c r="L5" t="inlineStr"/>
+      <c r="M5" t="inlineStr"/>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>#LQCU99G0</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Frosty</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>16</v>
+      </c>
+      <c r="E6" t="n">
+        <v>15</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
+      <c r="M6" t="inlineStr"/>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>4</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>#YP9QVLRG</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>twa89</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>17</v>
+      </c>
+      <c r="E7" t="n">
+        <v>7</v>
+      </c>
+      <c r="F7" t="n">
+        <v>3</v>
+      </c>
+      <c r="G7" t="n">
+        <v>167</v>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>#8UL0PQG90</t>
+        </is>
+      </c>
+      <c r="I7" t="n">
+        <v>1</v>
+      </c>
+      <c r="J7" t="n">
+        <v>79</v>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>#80QV2GRQQ</t>
+        </is>
+      </c>
+      <c r="L7" t="n">
+        <v>2</v>
+      </c>
+      <c r="M7" t="n">
+        <v>88</v>
+      </c>
+      <c r="N7" t="n">
+        <v>46.7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>#YQC0VQ9U2</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>power</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>16</v>
+      </c>
+      <c r="E8" t="n">
+        <v>19</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="inlineStr"/>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>6</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>#RV0J2JYR</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Braveheart 2.0</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>17</v>
+      </c>
+      <c r="E9" t="n">
+        <v>2</v>
+      </c>
+      <c r="F9" t="n">
+        <v>4</v>
+      </c>
+      <c r="G9" t="n">
+        <v>174</v>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>#2YRR0CL0G</t>
+        </is>
+      </c>
+      <c r="I9" t="n">
+        <v>2</v>
+      </c>
+      <c r="J9" t="n">
+        <v>76</v>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>#L2YUUQVG</t>
+        </is>
+      </c>
+      <c r="L9" t="n">
+        <v>2</v>
+      </c>
+      <c r="M9" t="n">
+        <v>98</v>
+      </c>
+      <c r="N9" t="n">
+        <v>57.4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>7</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>#22L9P9JLC</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>MACK</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>17</v>
+      </c>
+      <c r="E10" t="n">
+        <v>6</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr"/>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>8</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>#8U80R0R8P</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>camdash</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>16</v>
+      </c>
+      <c r="E11" t="n">
+        <v>18</v>
+      </c>
+      <c r="F11" t="n">
+        <v>4</v>
+      </c>
+      <c r="G11" t="n">
+        <v>115</v>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>#LVUVLJVVJ</t>
+        </is>
+      </c>
+      <c r="I11" t="n">
+        <v>2</v>
+      </c>
+      <c r="J11" t="n">
+        <v>61</v>
+      </c>
+      <c r="K11" t="inlineStr">
+        <is>
+          <t>#QVQ89QV2G</t>
+        </is>
+      </c>
+      <c r="L11" t="n">
+        <v>2</v>
+      </c>
+      <c r="M11" t="n">
+        <v>54</v>
+      </c>
+      <c r="N11" t="n">
+        <v>51.5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>9</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>#RYQC2PVQ</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Yarrick</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>17</v>
+      </c>
+      <c r="E12" t="n">
+        <v>4</v>
+      </c>
+      <c r="F12" t="n">
+        <v>4</v>
+      </c>
+      <c r="G12" t="n">
+        <v>172</v>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>#2PP9ULC88</t>
+        </is>
+      </c>
+      <c r="I12" t="n">
+        <v>2</v>
+      </c>
+      <c r="J12" t="n">
+        <v>83</v>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
+          <t>#YVV2GUP8</t>
+        </is>
+      </c>
+      <c r="L12" t="n">
+        <v>2</v>
+      </c>
+      <c r="M12" t="n">
+        <v>89</v>
+      </c>
+      <c r="N12" t="n">
+        <v>57.2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>10</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>#QGGCRQ2P</t>
+        </is>
+      </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>machinist</t>
+          <t>RAR</t>
         </is>
       </c>
       <c r="D13" t="n">
         <v>17</v>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="inlineStr"/>
-      <c r="I13" t="inlineStr"/>
-      <c r="J13" t="inlineStr"/>
+        <v>81</v>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>#QQ2LGLGV</t>
+        </is>
+      </c>
+      <c r="I13" t="n">
+        <v>2</v>
+      </c>
+      <c r="J13" t="n">
+        <v>81</v>
+      </c>
       <c r="K13" t="inlineStr"/>
       <c r="L13" t="inlineStr"/>
       <c r="M13" t="inlineStr"/>
       <c r="N13" t="n">
-        <v>0</v>
+        <v>28.1</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>#U8VUYJYQ</t>
+          <t>#GPC8UL0RV</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>StayHumble</t>
+          <t>Md Shakilrana❤️</t>
         </is>
       </c>
       <c r="D14" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="F14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>117</v>
+        <v>50</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>#90RGJJ8</t>
+          <t>#QVQ89QV2G</t>
         </is>
       </c>
       <c r="I14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J14" t="n">
-        <v>55</v>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>#899V0290</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>1</v>
-      </c>
-      <c r="M14" t="n">
-        <v>62</v>
-      </c>
+        <v>50</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
+      <c r="L14" t="inlineStr"/>
+      <c r="M14" t="inlineStr"/>
       <c r="N14" t="n">
-        <v>41.7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>#UQLQUYYP</t>
+          <t>#QYP9R8JLQ</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>arunviji</t>
+          <t>Major Pain</t>
         </is>
       </c>
       <c r="D15" t="n">
         <v>17</v>
       </c>
       <c r="E15" t="n">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>#G8GVQRGVG</t>
+          <t>#PC9Y8JRLU</t>
         </is>
       </c>
       <c r="I15" t="n">
         <v>1</v>
       </c>
       <c r="J15" t="n">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>#Q0CRVY9UP</t>
+          <t>#8UL0PQG90</t>
         </is>
       </c>
       <c r="L15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M15" t="n">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="N15" t="n">
-        <v>56</v>
+        <v>35.3</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>#PC9Y8JRLU</t>
+          <t>#8R0QQVL99</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>linkesh</t>
+          <t>joe.jen</t>
         </is>
       </c>
       <c r="D16" t="n">
         <v>17</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="F16" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" t="n">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>#G8GVQRGVG</t>
+          <t>#PY9QPG8L8</t>
         </is>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="J16" t="n">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>#L0Y9G0J00</t>
+          <t>#PPYY8GQLG</t>
         </is>
       </c>
       <c r="L16" t="n">
         <v>2</v>
       </c>
       <c r="M16" t="n">
-        <v>59</v>
+        <v>81</v>
       </c>
       <c r="N16" t="n">
-        <v>65.90000000000001</v>
+        <v>45.6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>#9Q2QGP8QU</t>
+          <t>#YLL0YU8U</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>ADENGAPPA゛RAM</t>
+          <t>SoccerCoach</t>
         </is>
       </c>
       <c r="D17" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E17" t="n">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G17" t="n">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>#9LQGV08PJ</t>
+          <t>#GPGU82LY2</t>
         </is>
       </c>
       <c r="I17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>#892JCVQ88</t>
+          <t>#QVQ89QV2G</t>
         </is>
       </c>
       <c r="L17" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="M17" t="n">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="N17" t="n">
-        <v>67.90000000000001</v>
+        <v>47.5</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>#GPGU82LY2</t>
+          <t>#YGYG22G0J</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>Naruto</t>
+          <t>Junior 2</t>
         </is>
       </c>
       <c r="D18" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E18" t="n">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F18" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>171</v>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>#L0Y9G0J00</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
-        <v>2</v>
-      </c>
-      <c r="J18" t="n">
-        <v>98</v>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>#CG0CQ9UL</t>
-        </is>
-      </c>
-      <c r="L18" t="n">
-        <v>2</v>
-      </c>
-      <c r="M18" t="n">
-        <v>73</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H18" t="inlineStr"/>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
+      <c r="M18" t="inlineStr"/>
       <c r="N18" t="n">
-        <v>57.1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>#PPYY8GQLG</t>
+          <t>#CJP8CJ09</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>Abick sharon</t>
+          <t>JUMPMAN 23</t>
         </is>
       </c>
       <c r="D19" t="n">
         <v>17</v>
       </c>
       <c r="E19" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="G19" t="n">
-        <v>190</v>
+        <v>115</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>#LJ2GGG9LY</t>
+          <t>#PY9QPG8L8</t>
         </is>
       </c>
       <c r="I19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J19" t="n">
-        <v>95</v>
+        <v>45</v>
       </c>
       <c r="K19" t="inlineStr">
         <is>
-          <t>#VURPRYPV</t>
+          <t>#8UL0PQG90</t>
         </is>
       </c>
       <c r="L19" t="n">
         <v>2</v>
       </c>
       <c r="M19" t="n">
-        <v>95</v>
+        <v>70</v>
       </c>
       <c r="N19" t="n">
-        <v>59</v>
+        <v>41.5</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>#2PP9ULC88</t>
+          <t>#9Y8UYJJJY</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>hemu</t>
+          <t>O.Alkabi</t>
         </is>
       </c>
       <c r="D20" t="n">
         <v>17</v>
       </c>
       <c r="E20" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="F20" t="n">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>187</v>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>#VURPRYPV</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
-        <v>2</v>
-      </c>
-      <c r="J20" t="n">
-        <v>87</v>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>#99JVU8QYC</t>
-        </is>
-      </c>
-      <c r="L20" t="n">
-        <v>3</v>
-      </c>
-      <c r="M20" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H20" t="inlineStr"/>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr"/>
       <c r="N20" t="n">
-        <v>68.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>#9YQLY2GJL</t>
+          <t>#8JJUJLYGL</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>Purushoth</t>
+          <t>Munsif</t>
         </is>
       </c>
       <c r="D21" t="n">
         <v>16</v>
       </c>
       <c r="E21" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F21" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>200</v>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>#9CQR222QV</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
-        <v>3</v>
-      </c>
-      <c r="J21" t="n">
-        <v>100</v>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>#PJV92RURP</t>
-        </is>
-      </c>
-      <c r="L21" t="n">
-        <v>3</v>
-      </c>
-      <c r="M21" t="n">
-        <v>100</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H21" t="inlineStr"/>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>#2P2UR8C22</t>
+          <t>#L2CCP298G</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>ivan</t>
+          <t>mathew</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E22" t="n">
-        <v>20</v>
+        <v>9</v>
       </c>
       <c r="F22" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>119</v>
-      </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>#G8GVQRGVG</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
-        <v>2</v>
-      </c>
-      <c r="J22" t="n">
-        <v>55</v>
-      </c>
-      <c r="K22" t="inlineStr">
-        <is>
-          <t>#L0Y9G0J00</t>
-        </is>
-      </c>
-      <c r="L22" t="n">
-        <v>1</v>
-      </c>
-      <c r="M22" t="n">
-        <v>64</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="H22" t="inlineStr"/>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
+      <c r="M22" t="inlineStr"/>
       <c r="N22" t="n">
-        <v>41.9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>#80QV2GRQQ</t>
+          <t>#Q9RP228VC</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>Raj</t>
+          <t>HUDSON</t>
         </is>
       </c>
       <c r="D23" t="n">
         <v>17</v>
       </c>
       <c r="E23" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="F23" t="n">
         <v>4</v>
       </c>
       <c r="G23" t="n">
-        <v>143</v>
+        <v>190</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>#8P8VGJQLV</t>
+          <t>#2LPGCGRUV</t>
         </is>
       </c>
       <c r="I23" t="n">
         <v>2</v>
       </c>
       <c r="J23" t="n">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="K23" t="inlineStr">
         <is>
-          <t>#QCRRGYU8J</t>
+          <t>#9Q2QGP8QU</t>
         </is>
       </c>
       <c r="L23" t="n">
         <v>2</v>
       </c>
       <c r="M23" t="n">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="N23" t="n">
-        <v>54.3</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="n">
-        <v>16</v>
-      </c>
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>#9VLQLLYCQ</t>
-        </is>
-      </c>
-      <c r="C24" t="inlineStr">
-        <is>
-          <t>⚡ANAND⚡</t>
-        </is>
-      </c>
-      <c r="D24" t="n">
-        <v>17</v>
-      </c>
-      <c r="E24" t="n">
-        <v>7</v>
-      </c>
-      <c r="F24" t="n">
-        <v>0</v>
-      </c>
-      <c r="G24" t="n">
-        <v>0</v>
-      </c>
-      <c r="H24" t="inlineStr"/>
-      <c r="I24" t="inlineStr"/>
-      <c r="J24" t="inlineStr"/>
-      <c r="K24" t="inlineStr"/>
-      <c r="L24" t="inlineStr"/>
-      <c r="M24" t="inlineStr"/>
-      <c r="N24" t="n">
-        <v>0</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>17</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Number of players</t>
+        </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>#8YVJ88P9Y</t>
+          <t>Clan tag</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>Nagarjun</t>
-        </is>
-      </c>
-      <c r="D25" t="n">
-        <v>16</v>
-      </c>
-      <c r="E25" t="n">
-        <v>13</v>
-      </c>
-      <c r="F25" t="n">
-        <v>3</v>
-      </c>
-      <c r="G25" t="n">
-        <v>100</v>
-      </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>#9GPYPGLYP</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
-        <v>3</v>
-      </c>
-      <c r="J25" t="n">
-        <v>100</v>
-      </c>
-      <c r="K25" t="inlineStr"/>
-      <c r="L25" t="inlineStr"/>
-      <c r="M25" t="inlineStr"/>
-      <c r="N25" t="n">
-        <v>40</v>
+          <t>Clan name</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Average Townhall</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Strategy Tips</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Clan Stars</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Average Destruction</t>
+        </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>#9UL9Q0L8U</t>
+          <t>#29CLCYP9</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>b aol</t>
+          <t>GREEN BAY</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>16</v>
-      </c>
-      <c r="E26" t="n">
-        <v>15</v>
+        <v>16.6</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Target low bases with 2nd attackers. Aim 2⭐+ high %.</t>
+        </is>
       </c>
       <c r="F26" t="n">
-        <v>5</v>
+        <v>38</v>
       </c>
       <c r="G26" t="n">
-        <v>172</v>
-      </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>#90RGJJ8</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
-        <v>3</v>
-      </c>
-      <c r="J26" t="n">
-        <v>100</v>
-      </c>
-      <c r="K26" t="inlineStr">
-        <is>
-          <t>#202L2L2RV</t>
-        </is>
-      </c>
-      <c r="L26" t="n">
-        <v>2</v>
-      </c>
-      <c r="M26" t="n">
-        <v>72</v>
-      </c>
-      <c r="N26" t="n">
-        <v>67.2</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="n">
-        <v>19</v>
-      </c>
-      <c r="B27" t="inlineStr">
-        <is>
-          <t>#QQ2LGLGV</t>
-        </is>
-      </c>
-      <c r="C27" t="inlineStr">
-        <is>
-          <t>ezhilraju king</t>
-        </is>
-      </c>
-      <c r="D27" t="n">
-        <v>17</v>
-      </c>
-      <c r="E27" t="n">
-        <v>9</v>
-      </c>
-      <c r="F27" t="n">
-        <v>4</v>
-      </c>
-      <c r="G27" t="n">
-        <v>164</v>
-      </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>#QCRRGYU8J</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
-        <v>2</v>
-      </c>
-      <c r="J27" t="n">
-        <v>83</v>
-      </c>
-      <c r="K27" t="inlineStr">
-        <is>
-          <t>#9JRL8QCP8</t>
-        </is>
-      </c>
-      <c r="L27" t="n">
-        <v>2</v>
-      </c>
-      <c r="M27" t="n">
-        <v>81</v>
-      </c>
-      <c r="N27" t="n">
-        <v>56.4</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="n">
-        <v>20</v>
-      </c>
-      <c r="B28" t="inlineStr">
-        <is>
-          <t>#YVV2GUP8</t>
-        </is>
-      </c>
-      <c r="C28" t="inlineStr">
-        <is>
-          <t>selva</t>
-        </is>
-      </c>
-      <c r="D28" t="n">
-        <v>17</v>
-      </c>
-      <c r="E28" t="n">
-        <v>3</v>
-      </c>
-      <c r="F28" t="n">
-        <v>0</v>
-      </c>
-      <c r="G28" t="n">
-        <v>0</v>
-      </c>
-      <c r="H28" t="inlineStr"/>
-      <c r="I28" t="inlineStr"/>
-      <c r="J28" t="inlineStr"/>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr"/>
-      <c r="N28" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>number of players</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>clan tag</t>
-        </is>
-      </c>
-      <c r="C30" t="inlineStr">
-        <is>
-          <t>clan name</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>average townhall</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>clan tips need to victory strategy</t>
-        </is>
-      </c>
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>clan stars</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>destruction average</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="n">
-        <v>20</v>
-      </c>
-      <c r="B31" t="inlineStr">
-        <is>
-          <t>#2LG2J9VR9</t>
-        </is>
-      </c>
-      <c r="C31" t="inlineStr">
-        <is>
-          <t>TAMIL</t>
-        </is>
-      </c>
-      <c r="D31" t="n">
-        <v>16.4</v>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>Target low bases with 2nd attackers. Aim 2⭐+ high %.</t>
-        </is>
-      </c>
-      <c r="F31" t="n">
-        <v>70</v>
-      </c>
-      <c r="G31" t="n">
-        <v>130.8</v>
+        <v>85.5</v>
       </c>
     </row>
   </sheetData>

--- a/live_war_auto_update.xlsx
+++ b/live_war_auto_update.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3:17:22</t>
+          <t>3:12:06</t>
         </is>
       </c>
     </row>

--- a/live_war_auto_update.xlsx
+++ b/live_war_auto_update.xlsx
@@ -489,7 +489,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>3:12:06</t>
+          <t>3:09:15</t>
         </is>
       </c>
     </row>
